--- a/data/pca/factorExposure/factorExposure_2017-07-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-07-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02362222221944679</v>
+        <v>0.009747742193432361</v>
       </c>
       <c r="C2">
-        <v>-0.002412945437181646</v>
+        <v>-0.04123892379265064</v>
       </c>
       <c r="D2">
-        <v>-0.02605291624917509</v>
+        <v>-0.02948456551327663</v>
       </c>
       <c r="E2">
-        <v>-0.01189407151229962</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03125108032333106</v>
+      </c>
+      <c r="F2">
+        <v>-0.009610817815299438</v>
+      </c>
+      <c r="G2">
+        <v>-0.07504534943340012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01695518008373748</v>
+        <v>0.04617231642391245</v>
       </c>
       <c r="C3">
-        <v>0.05497425997120536</v>
+        <v>-0.08478418088529122</v>
       </c>
       <c r="D3">
-        <v>-0.04107327621352261</v>
+        <v>-0.01711088491513444</v>
       </c>
       <c r="E3">
-        <v>-0.01820966703333136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.1048679257840295</v>
+      </c>
+      <c r="F3">
+        <v>-0.01318594286128518</v>
+      </c>
+      <c r="G3">
+        <v>-0.178636612448997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02324359817777213</v>
+        <v>0.0564825592481072</v>
       </c>
       <c r="C4">
-        <v>0.009450365244687465</v>
+        <v>-0.06607290450563078</v>
       </c>
       <c r="D4">
-        <v>-0.07606309644121104</v>
+        <v>-0.02440021821412188</v>
       </c>
       <c r="E4">
-        <v>0.01627260089081902</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02470636232279878</v>
+      </c>
+      <c r="F4">
+        <v>-0.01230881293631171</v>
+      </c>
+      <c r="G4">
+        <v>-0.08625261387495942</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01417893166758427</v>
+        <v>0.03774186831838794</v>
       </c>
       <c r="C6">
-        <v>-0.0001814672512802073</v>
+        <v>-0.0526152820942484</v>
       </c>
       <c r="D6">
-        <v>-0.08123542758257028</v>
+        <v>-0.0162560169903789</v>
       </c>
       <c r="E6">
-        <v>0.009906328049297844</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02328999758850541</v>
+      </c>
+      <c r="F6">
+        <v>-0.009209410078872826</v>
+      </c>
+      <c r="G6">
+        <v>-0.05985353377194824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01077236346659514</v>
+        <v>0.02006728689399996</v>
       </c>
       <c r="C7">
-        <v>0.005824173928369822</v>
+        <v>-0.04108549215400593</v>
       </c>
       <c r="D7">
-        <v>-0.04345483118776215</v>
+        <v>-0.01298955467967018</v>
       </c>
       <c r="E7">
-        <v>0.05869948464652292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.006467069433834321</v>
+      </c>
+      <c r="F7">
+        <v>0.004786402147072846</v>
+      </c>
+      <c r="G7">
+        <v>-0.1171496902280047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0001299345876899392</v>
+        <v>0.002234731109295241</v>
       </c>
       <c r="C8">
-        <v>-0.00270734295984104</v>
+        <v>-0.02310867798068644</v>
       </c>
       <c r="D8">
-        <v>-0.00511157109017788</v>
+        <v>-0.003927385285869227</v>
       </c>
       <c r="E8">
-        <v>0.008013872610303251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02068379427751427</v>
+      </c>
+      <c r="F8">
+        <v>-0.007449778987918793</v>
+      </c>
+      <c r="G8">
+        <v>-0.05753990197317167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0161235875213668</v>
+        <v>0.03371915119982738</v>
       </c>
       <c r="C9">
-        <v>0.01347922741345434</v>
+        <v>-0.0468325468496841</v>
       </c>
       <c r="D9">
-        <v>-0.05534939704550943</v>
+        <v>-0.01646123332850134</v>
       </c>
       <c r="E9">
-        <v>0.004683370251695977</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.0157762388291295</v>
+      </c>
+      <c r="F9">
+        <v>-0.01058817518931923</v>
+      </c>
+      <c r="G9">
+        <v>-0.08266745977053294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02216316321718838</v>
+        <v>0.09889974998430485</v>
       </c>
       <c r="C10">
-        <v>0.1734664566123665</v>
+        <v>0.1822341769370805</v>
       </c>
       <c r="D10">
-        <v>0.09033840717751564</v>
+        <v>0.01553130980690039</v>
       </c>
       <c r="E10">
-        <v>-0.01207262861460477</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01728230835809233</v>
+      </c>
+      <c r="F10">
+        <v>0.0213368535494483</v>
+      </c>
+      <c r="G10">
+        <v>-0.05218096144805411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0004489513719946282</v>
+        <v>0.03416862431789151</v>
       </c>
       <c r="C11">
-        <v>0.00193305501275699</v>
+        <v>-0.05468202150037696</v>
       </c>
       <c r="D11">
-        <v>-0.04380250354051386</v>
+        <v>-0.002493037995484675</v>
       </c>
       <c r="E11">
-        <v>-0.005475921956883451</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.008609049553152486</v>
+      </c>
+      <c r="F11">
+        <v>-0.0225441463498062</v>
+      </c>
+      <c r="G11">
+        <v>-0.06628753794073768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006062140086251594</v>
+        <v>0.03587434491665724</v>
       </c>
       <c r="C12">
-        <v>0.008504349634366894</v>
+        <v>-0.04886280453695586</v>
       </c>
       <c r="D12">
-        <v>-0.04790283652569255</v>
+        <v>-0.006198520769117642</v>
       </c>
       <c r="E12">
-        <v>0.007050231798568317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>2.189184438601285e-05</v>
+      </c>
+      <c r="F12">
+        <v>-0.001758090211158019</v>
+      </c>
+      <c r="G12">
+        <v>-0.06195702284379303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02380268382943442</v>
+        <v>0.0149244152645888</v>
       </c>
       <c r="C13">
-        <v>0.01800777011909637</v>
+        <v>-0.03708203807188036</v>
       </c>
       <c r="D13">
-        <v>-0.004872931885133043</v>
+        <v>-0.02604462085012692</v>
       </c>
       <c r="E13">
-        <v>-0.009848953228595893</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02838993207081515</v>
+      </c>
+      <c r="F13">
+        <v>-0.007803566964443786</v>
+      </c>
+      <c r="G13">
+        <v>-0.09718792632185005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.008479457562188196</v>
+        <v>0.008298647009330714</v>
       </c>
       <c r="C14">
-        <v>0.01410601679937224</v>
+        <v>-0.02597705393510859</v>
       </c>
       <c r="D14">
-        <v>-0.009322807444517715</v>
+        <v>-0.009263865865718727</v>
       </c>
       <c r="E14">
-        <v>0.007657316093905759</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.0007177516788863926</v>
+      </c>
+      <c r="F14">
+        <v>0.007060889968890192</v>
+      </c>
+      <c r="G14">
+        <v>-0.08249697558937903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001295628044115077</v>
+        <v>0.03321137437772299</v>
       </c>
       <c r="C16">
-        <v>0.008034907144557908</v>
+        <v>-0.04861004033077328</v>
       </c>
       <c r="D16">
-        <v>-0.04931307610242969</v>
+        <v>-0.001937404492779528</v>
       </c>
       <c r="E16">
-        <v>0.005961414591492957</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.007297666652033213</v>
+      </c>
+      <c r="F16">
+        <v>-0.00290397519187948</v>
+      </c>
+      <c r="G16">
+        <v>-0.06869210669459538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01472713502614923</v>
+        <v>0.02080808278101757</v>
       </c>
       <c r="C19">
-        <v>0.01821643333221388</v>
+        <v>-0.04829425293975312</v>
       </c>
       <c r="D19">
-        <v>-0.02332181027883034</v>
+        <v>-0.01845736177887855</v>
       </c>
       <c r="E19">
-        <v>0.005428679943314554</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.0643860799529954</v>
+      </c>
+      <c r="F19">
+        <v>-0.02219004017165132</v>
+      </c>
+      <c r="G19">
+        <v>-0.1140630284518213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01067427408017945</v>
+        <v>0.01440092444214418</v>
       </c>
       <c r="C20">
-        <v>0.004795777032596216</v>
+        <v>-0.03745291490831513</v>
       </c>
       <c r="D20">
-        <v>-0.01598368835737578</v>
+        <v>-0.01398624500683617</v>
       </c>
       <c r="E20">
-        <v>-0.01082715607045275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02664510982489053</v>
+      </c>
+      <c r="F20">
+        <v>0.009364153906771731</v>
+      </c>
+      <c r="G20">
+        <v>-0.08887231120295298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01482758694377713</v>
+        <v>0.0130005158598327</v>
       </c>
       <c r="C21">
-        <v>0.01770157892757733</v>
+        <v>-0.03791253061198132</v>
       </c>
       <c r="D21">
-        <v>-0.02202804328145017</v>
+        <v>-0.01797647566505469</v>
       </c>
       <c r="E21">
-        <v>0.0114168749996048</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03923047175487685</v>
+      </c>
+      <c r="F21">
+        <v>0.0003008031452527646</v>
+      </c>
+      <c r="G21">
+        <v>-0.1169693216971073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0002605130481131915</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-7.992873077864266e-05</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-5.337884024626133e-05</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.000285648835955212</v>
+      </c>
+      <c r="F22">
+        <v>-0.0003373186943246267</v>
+      </c>
+      <c r="G22">
+        <v>-0.0004367863676598698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0002605130481131915</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-7.992873077864266e-05</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-5.337884024626133e-05</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.000285648835955212</v>
+      </c>
+      <c r="F23">
+        <v>-0.0003373186943246267</v>
+      </c>
+      <c r="G23">
+        <v>-0.0004367863676598699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004324035048067407</v>
+        <v>0.02774918201151234</v>
       </c>
       <c r="C24">
-        <v>-0.002797534325383063</v>
+        <v>-0.05130104663105774</v>
       </c>
       <c r="D24">
-        <v>-0.04395533644284487</v>
+        <v>-0.007270714684182898</v>
       </c>
       <c r="E24">
-        <v>0.001856465972225947</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.00441785396765627</v>
+      </c>
+      <c r="F24">
+        <v>-0.01465121788605097</v>
+      </c>
+      <c r="G24">
+        <v>-0.06996178227325016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01221841714962082</v>
+        <v>0.04233523345867803</v>
       </c>
       <c r="C25">
-        <v>0.01449479376513302</v>
+        <v>-0.0583826431186901</v>
       </c>
       <c r="D25">
-        <v>-0.04688845841632283</v>
+        <v>-0.01131485496376332</v>
       </c>
       <c r="E25">
-        <v>0.002166945564668527</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.00172179410738594</v>
+      </c>
+      <c r="F25">
+        <v>-0.009208410397036884</v>
+      </c>
+      <c r="G25">
+        <v>-0.07807667703414946</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02349752842673111</v>
+        <v>0.01433673808263831</v>
       </c>
       <c r="C26">
-        <v>0.01080136275813321</v>
+        <v>-0.009798178610405722</v>
       </c>
       <c r="D26">
-        <v>0.002871735610900016</v>
+        <v>-0.02359379156769573</v>
       </c>
       <c r="E26">
-        <v>0.008355304012853811</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.005044726506668685</v>
+      </c>
+      <c r="F26">
+        <v>0.007981953619575757</v>
+      </c>
+      <c r="G26">
+        <v>-0.06586981402674695</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.04588007528007589</v>
+        <v>0.1273384925788553</v>
       </c>
       <c r="C28">
-        <v>0.2508553249469614</v>
+        <v>0.236022327068602</v>
       </c>
       <c r="D28">
-        <v>0.1358918524346236</v>
+        <v>0.006482506692072085</v>
       </c>
       <c r="E28">
-        <v>0.01074316962235556</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.004892256324174147</v>
+      </c>
+      <c r="F28">
+        <v>0.01656113070753687</v>
+      </c>
+      <c r="G28">
+        <v>-0.06681879429977884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008960737709776633</v>
+        <v>0.009560014925943414</v>
       </c>
       <c r="C29">
-        <v>0.01925282499042631</v>
+        <v>-0.0198146346680749</v>
       </c>
       <c r="D29">
-        <v>-0.007813772555082185</v>
+        <v>-0.008179625509831555</v>
       </c>
       <c r="E29">
-        <v>0.002959610529264123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.001691666910082243</v>
+      </c>
+      <c r="F29">
+        <v>0.0156485977684363</v>
+      </c>
+      <c r="G29">
+        <v>-0.0745286253274189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02361467096133698</v>
+        <v>0.04118002768035933</v>
       </c>
       <c r="C30">
-        <v>-0.002991602805977741</v>
+        <v>-0.06675066525824848</v>
       </c>
       <c r="D30">
-        <v>-0.05755586187505318</v>
+        <v>-0.02906813796398419</v>
       </c>
       <c r="E30">
-        <v>-0.0462865448353716</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05123879597644083</v>
+      </c>
+      <c r="F30">
+        <v>-0.04961463967468237</v>
+      </c>
+      <c r="G30">
+        <v>-0.08655414013633299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.00970128605070876</v>
+        <v>0.05282354085187266</v>
       </c>
       <c r="C31">
-        <v>0.03859333858671555</v>
+        <v>-0.03618484319687616</v>
       </c>
       <c r="D31">
-        <v>-0.04725737589485365</v>
+        <v>-0.003257758593345587</v>
       </c>
       <c r="E31">
-        <v>0.01111384301512973</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.005107625973343999</v>
+      </c>
+      <c r="F31">
+        <v>0.04004060689947819</v>
+      </c>
+      <c r="G31">
+        <v>-0.07249064181959743</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.004793464348380068</v>
+        <v>0.001725538417241945</v>
       </c>
       <c r="C32">
-        <v>0.02429885951739552</v>
+        <v>-0.02213827667522877</v>
       </c>
       <c r="D32">
-        <v>0.004742095775317041</v>
+        <v>0.00395215793239669</v>
       </c>
       <c r="E32">
-        <v>0.04981582122003349</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01651579943591104</v>
+      </c>
+      <c r="F32">
+        <v>-0.03983659062883758</v>
+      </c>
+      <c r="G32">
+        <v>-0.09750817575617127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01388986554118051</v>
+        <v>0.02770293281820338</v>
       </c>
       <c r="C33">
-        <v>0.02188164325305293</v>
+        <v>-0.04781397869446316</v>
       </c>
       <c r="D33">
-        <v>-0.03224209309078545</v>
+        <v>-0.01532345577829186</v>
       </c>
       <c r="E33">
-        <v>-0.02938234174257555</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03270816904155029</v>
+      </c>
+      <c r="F33">
+        <v>-0.01939507783176078</v>
+      </c>
+      <c r="G33">
+        <v>-0.1104210655952703</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.004147451069480132</v>
+        <v>0.03990922143713405</v>
       </c>
       <c r="C34">
-        <v>0.01477807841065246</v>
+        <v>-0.06265084290532001</v>
       </c>
       <c r="D34">
-        <v>-0.05165546922556188</v>
+        <v>0.004481966912360928</v>
       </c>
       <c r="E34">
-        <v>0.01042848685890586</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.001327672623325758</v>
+      </c>
+      <c r="F34">
+        <v>-0.0213668279941931</v>
+      </c>
+      <c r="G34">
+        <v>-0.07815772093418231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01322461511689488</v>
+        <v>0.01589903314462765</v>
       </c>
       <c r="C36">
-        <v>0.02015623553423313</v>
+        <v>-0.007993509034053445</v>
       </c>
       <c r="D36">
-        <v>-0.004573684645599357</v>
+        <v>-0.01172395992885168</v>
       </c>
       <c r="E36">
-        <v>0.003468328822018572</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.001281928201612129</v>
+      </c>
+      <c r="F36">
+        <v>0.006676828395847722</v>
+      </c>
+      <c r="G36">
+        <v>-0.06544031666397632</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.003529621061798625</v>
+        <v>0.03275512599084468</v>
       </c>
       <c r="C38">
-        <v>0.0300362079855513</v>
+        <v>-0.03100511718281743</v>
       </c>
       <c r="D38">
-        <v>-0.0433317682971394</v>
+        <v>0.007651389753928336</v>
       </c>
       <c r="E38">
-        <v>0.006992846276444623</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002654206811944233</v>
+      </c>
+      <c r="F38">
+        <v>0.01633896379626483</v>
+      </c>
+      <c r="G38">
+        <v>-0.07018277900697295</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.004122512169911393</v>
+        <v>0.03489877998763821</v>
       </c>
       <c r="C39">
-        <v>-0.02578561576860559</v>
+        <v>-0.08023847218656578</v>
       </c>
       <c r="D39">
-        <v>-0.08527634867674197</v>
+        <v>-0.01177480618671396</v>
       </c>
       <c r="E39">
-        <v>-0.009645762308468196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.01909339370975293</v>
+      </c>
+      <c r="F39">
+        <v>-0.02761168517970924</v>
+      </c>
+      <c r="G39">
+        <v>-0.06703249655556874</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.0121429945312009</v>
+        <v>0.01518194502350598</v>
       </c>
       <c r="C40">
-        <v>0.01514712115240376</v>
+        <v>-0.0415380314414713</v>
       </c>
       <c r="D40">
-        <v>-0.02701480644179063</v>
+        <v>-0.0150101944641782</v>
       </c>
       <c r="E40">
-        <v>0.00292439991495698</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02125513134683742</v>
+      </c>
+      <c r="F40">
+        <v>0.01332652686861303</v>
+      </c>
+      <c r="G40">
+        <v>-0.1083337974636025</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.00652084320833809</v>
+        <v>0.01980497401240346</v>
       </c>
       <c r="C41">
-        <v>0.02233243228735491</v>
+        <v>0.001303387294087771</v>
       </c>
       <c r="D41">
-        <v>0.007833534536965997</v>
+        <v>-0.003674807711406145</v>
       </c>
       <c r="E41">
-        <v>0.00295417525335233</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0001960308196073363</v>
+      </c>
+      <c r="F41">
+        <v>0.01021948988716847</v>
+      </c>
+      <c r="G41">
+        <v>-0.05094275204760248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09284047884861243</v>
+        <v>0.009823169068043794</v>
       </c>
       <c r="C42">
-        <v>-0.02670868229689404</v>
+        <v>-0.03750202889513377</v>
       </c>
       <c r="D42">
-        <v>-0.2673820615309593</v>
+        <v>-0.09340829037290924</v>
       </c>
       <c r="E42">
-        <v>-0.4016730453771594</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.027639009178519</v>
+      </c>
+      <c r="F42">
+        <v>0.03556641060616023</v>
+      </c>
+      <c r="G42">
+        <v>0.1457785971351879</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.007732898985190004</v>
+        <v>0.03368309324523409</v>
       </c>
       <c r="C43">
-        <v>0.02603678699497305</v>
+        <v>-0.01359841893511279</v>
       </c>
       <c r="D43">
-        <v>0.005254606170772271</v>
+        <v>-0.005490468564473714</v>
       </c>
       <c r="E43">
-        <v>-0.001619793756830121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01339269345951242</v>
+      </c>
+      <c r="F43">
+        <v>0.001127189486157293</v>
+      </c>
+      <c r="G43">
+        <v>-0.07689351710087269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002550978091959327</v>
+        <v>0.01162222063278345</v>
       </c>
       <c r="C44">
-        <v>0.0008981763077662444</v>
+        <v>-0.05574611709005471</v>
       </c>
       <c r="D44">
-        <v>-0.0358445479139094</v>
+        <v>-0.00669075867617816</v>
       </c>
       <c r="E44">
-        <v>0.006738984544381424</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01799251593315171</v>
+      </c>
+      <c r="F44">
+        <v>0.007934375668418052</v>
+      </c>
+      <c r="G44">
+        <v>-0.09020248604739266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01139949400178866</v>
+        <v>0.008166915903533618</v>
       </c>
       <c r="C46">
-        <v>0.01472423533619351</v>
+        <v>-0.01444124129358931</v>
       </c>
       <c r="D46">
-        <v>-0.01020868474101996</v>
+        <v>-0.01180111964482803</v>
       </c>
       <c r="E46">
-        <v>-0.0005975368353061357</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001563224221432499</v>
+      </c>
+      <c r="F46">
+        <v>0.01539801226387445</v>
+      </c>
+      <c r="G46">
+        <v>-0.07492249175449257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.004351397240782342</v>
+        <v>0.07736818306063738</v>
       </c>
       <c r="C47">
-        <v>0.04925949571619338</v>
+        <v>-0.06622472613108968</v>
       </c>
       <c r="D47">
-        <v>-0.07291858961700601</v>
+        <v>0.005296175742993896</v>
       </c>
       <c r="E47">
-        <v>0.0065924648546531</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.008769364192047255</v>
+      </c>
+      <c r="F47">
+        <v>0.05314464597022834</v>
+      </c>
+      <c r="G47">
+        <v>-0.06731160309442563</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004119935668447128</v>
+        <v>0.02052302202791023</v>
       </c>
       <c r="C48">
-        <v>0.02456215616786439</v>
+        <v>-0.01144964085963615</v>
       </c>
       <c r="D48">
-        <v>-0.01746477069981672</v>
+        <v>-0.001152703441146077</v>
       </c>
       <c r="E48">
-        <v>0.003151386772091371</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.001359166429728773</v>
+      </c>
+      <c r="F48">
+        <v>0.02028825159579083</v>
+      </c>
+      <c r="G48">
+        <v>-0.07067225858434435</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.006409149059840239</v>
+        <v>0.07617220498194589</v>
       </c>
       <c r="C50">
-        <v>0.05198133373033183</v>
+        <v>-0.06885664302337816</v>
       </c>
       <c r="D50">
-        <v>-0.07181220004121014</v>
+        <v>0.003089029470296966</v>
       </c>
       <c r="E50">
-        <v>0.03360239208327467</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.009587939374065378</v>
+      </c>
+      <c r="F50">
+        <v>0.05865237008992037</v>
+      </c>
+      <c r="G50">
+        <v>-0.08578034874637752</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007483272877134769</v>
+        <v>0.0137908579319716</v>
       </c>
       <c r="C51">
-        <v>0.01479523680590187</v>
+        <v>-0.03394289822035788</v>
       </c>
       <c r="D51">
-        <v>-0.003709996471180073</v>
+        <v>-0.009910029616494318</v>
       </c>
       <c r="E51">
-        <v>0.006036220747427354</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01605387103627872</v>
+      </c>
+      <c r="F51">
+        <v>-0.02368113066380399</v>
+      </c>
+      <c r="G51">
+        <v>-0.1047337864471627</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.007135732475061974</v>
+        <v>0.0815642118367583</v>
       </c>
       <c r="C53">
-        <v>0.05875574073968683</v>
+        <v>-0.08397730482837233</v>
       </c>
       <c r="D53">
-        <v>-0.1302038790905893</v>
+        <v>0.004225691430556903</v>
       </c>
       <c r="E53">
-        <v>0.01453312690318915</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02819396727920938</v>
+      </c>
+      <c r="F53">
+        <v>0.06532344952379486</v>
+      </c>
+      <c r="G53">
+        <v>-0.06767296991929943</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001845268360387853</v>
+        <v>0.02962628160435274</v>
       </c>
       <c r="C54">
-        <v>0.03547023581040887</v>
+        <v>-0.01421137542081428</v>
       </c>
       <c r="D54">
-        <v>0.005214822682842978</v>
+        <v>0.001804151921999567</v>
       </c>
       <c r="E54">
-        <v>0.0009688981355044149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.009216696641897058</v>
+      </c>
+      <c r="F54">
+        <v>0.0002618918097958686</v>
+      </c>
+      <c r="G54">
+        <v>-0.07723459281860806</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.003272936973143104</v>
+        <v>0.07158471566773222</v>
       </c>
       <c r="C55">
-        <v>0.03720145026574276</v>
+        <v>-0.06898927077529013</v>
       </c>
       <c r="D55">
-        <v>-0.1066390867867152</v>
+        <v>0.005493297483193863</v>
       </c>
       <c r="E55">
-        <v>0.0005600656715890038</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02469812669013868</v>
+      </c>
+      <c r="F55">
+        <v>0.06289218080555818</v>
+      </c>
+      <c r="G55">
+        <v>-0.0417015517566853</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.005925511127595616</v>
+        <v>0.1381045983856294</v>
       </c>
       <c r="C56">
-        <v>0.07985219183409849</v>
+        <v>-0.109260241568684</v>
       </c>
       <c r="D56">
-        <v>-0.1665057720350859</v>
+        <v>0.01273021569724718</v>
       </c>
       <c r="E56">
-        <v>0.00493353801864546</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03241178902172832</v>
+      </c>
+      <c r="F56">
+        <v>0.08065368815151715</v>
+      </c>
+      <c r="G56">
+        <v>-0.01870009566642193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02370761493941027</v>
+        <v>0.006895108211019809</v>
       </c>
       <c r="C57">
-        <v>0.006969902233272571</v>
+        <v>-0.009243087691630845</v>
       </c>
       <c r="D57">
-        <v>-0.04438043117790386</v>
+        <v>-0.02363029139100537</v>
       </c>
       <c r="E57">
-        <v>-0.002426215514132807</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02398489647350206</v>
+      </c>
+      <c r="F57">
+        <v>-0.009182388027165207</v>
+      </c>
+      <c r="G57">
+        <v>-0.02866029170250156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01510793399501005</v>
+        <v>0.0585415718150077</v>
       </c>
       <c r="C58">
-        <v>0.06817999992416629</v>
+        <v>-0.05054305475569468</v>
       </c>
       <c r="D58">
-        <v>-0.1536799758973668</v>
+        <v>-0.03022740273430434</v>
       </c>
       <c r="E58">
-        <v>-0.4337242110408379</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9372249052154212</v>
+      </c>
+      <c r="F58">
+        <v>0.2334171802925599</v>
+      </c>
+      <c r="G58">
+        <v>0.1133249623138129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.04314322792225914</v>
+        <v>0.1607214358299329</v>
       </c>
       <c r="C59">
-        <v>0.2639277253886517</v>
+        <v>0.2017103252697153</v>
       </c>
       <c r="D59">
-        <v>0.134517727806128</v>
+        <v>0.01162258366789861</v>
       </c>
       <c r="E59">
-        <v>0.003382112383911841</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01692259422928164</v>
+      </c>
+      <c r="F59">
+        <v>-0.0003182468514754671</v>
+      </c>
+      <c r="G59">
+        <v>-0.04169362489228438</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04210850071136679</v>
+        <v>0.2855921158622708</v>
       </c>
       <c r="C60">
-        <v>0.158618964044472</v>
+        <v>-0.1057784449776526</v>
       </c>
       <c r="D60">
-        <v>-0.08765864328308055</v>
+        <v>-0.01307679720138468</v>
       </c>
       <c r="E60">
-        <v>0.004782996990697882</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.000314746967871799</v>
+      </c>
+      <c r="F60">
+        <v>-0.3501408116042611</v>
+      </c>
+      <c r="G60">
+        <v>0.1280677296563409</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002998178000459449</v>
+        <v>0.03704078279269458</v>
       </c>
       <c r="C61">
-        <v>0.003424984070092039</v>
+        <v>-0.06673410609484018</v>
       </c>
       <c r="D61">
-        <v>-0.06259020601737382</v>
+        <v>-0.005151179383204887</v>
       </c>
       <c r="E61">
-        <v>0.002588435222327192</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01164892688740778</v>
+      </c>
+      <c r="F61">
+        <v>-0.01483799168806856</v>
+      </c>
+      <c r="G61">
+        <v>-0.06807411123627048</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.008094110280146007</v>
+        <v>0.01471645765181174</v>
       </c>
       <c r="C63">
-        <v>0.008468053019658249</v>
+        <v>-0.02852703940949161</v>
       </c>
       <c r="D63">
-        <v>-0.0141808413527229</v>
+        <v>-0.008067504014633299</v>
       </c>
       <c r="E63">
-        <v>0.009544390391976883</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.001370565015850424</v>
+      </c>
+      <c r="F63">
+        <v>0.01792078211849725</v>
+      </c>
+      <c r="G63">
+        <v>-0.07499015711677237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.008866122332308496</v>
+        <v>0.04758182480788881</v>
       </c>
       <c r="C64">
-        <v>0.02530148003623747</v>
+        <v>-0.0456568507426587</v>
       </c>
       <c r="D64">
-        <v>-0.06222907039760111</v>
+        <v>-0.006316045606751038</v>
       </c>
       <c r="E64">
-        <v>-0.0115350734405329</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.00100887290310716</v>
+      </c>
+      <c r="F64">
+        <v>-0.007016509203004354</v>
+      </c>
+      <c r="G64">
+        <v>-0.06577768905481082</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01632592880084278</v>
+        <v>0.07601372163532531</v>
       </c>
       <c r="C65">
-        <v>-0.0009708426726562547</v>
+        <v>-0.06012862612342638</v>
       </c>
       <c r="D65">
-        <v>-0.0936899773400415</v>
+        <v>-0.01624147467361119</v>
       </c>
       <c r="E65">
-        <v>0.01524686075561454</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.02627691761574907</v>
+      </c>
+      <c r="F65">
+        <v>-0.02925363887584687</v>
+      </c>
+      <c r="G65">
+        <v>-0.02611164587719632</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.004019663536978329</v>
+        <v>0.05052887152657677</v>
       </c>
       <c r="C66">
-        <v>-0.02088509443864808</v>
+        <v>-0.1103561040896234</v>
       </c>
       <c r="D66">
-        <v>-0.1099837136042487</v>
+        <v>-0.01181086943831713</v>
       </c>
       <c r="E66">
-        <v>-0.006587277197718013</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02698536312932504</v>
+      </c>
+      <c r="F66">
+        <v>-0.03727381845183843</v>
+      </c>
+      <c r="G66">
+        <v>-0.07907632382816143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.003370086308686606</v>
+        <v>0.05534809883476024</v>
       </c>
       <c r="C67">
-        <v>0.05302623301358572</v>
+        <v>-0.03484065577132627</v>
       </c>
       <c r="D67">
-        <v>-0.05148230383577319</v>
+        <v>0.005884135441580032</v>
       </c>
       <c r="E67">
-        <v>0.007886434762457659</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003411438391310056</v>
+      </c>
+      <c r="F67">
+        <v>0.01639222468594702</v>
+      </c>
+      <c r="G67">
+        <v>-0.06366627206074377</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05969212644842702</v>
+        <v>0.1540777929510717</v>
       </c>
       <c r="C68">
-        <v>0.2422015986612669</v>
+        <v>0.2694246680071684</v>
       </c>
       <c r="D68">
-        <v>0.1463060186310085</v>
+        <v>-0.005486109123270611</v>
       </c>
       <c r="E68">
-        <v>-0.01880520786857062</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01075986775000414</v>
+      </c>
+      <c r="F68">
+        <v>0.03333377860469328</v>
+      </c>
+      <c r="G68">
+        <v>-0.02606935062010342</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0008538405520385958</v>
+        <v>0.08135334256795761</v>
       </c>
       <c r="C69">
-        <v>0.03859010500097682</v>
+        <v>-0.06917175714324297</v>
       </c>
       <c r="D69">
-        <v>-0.07234110498131123</v>
+        <v>0.009516684564581384</v>
       </c>
       <c r="E69">
-        <v>0.01225513463494773</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02581066143658928</v>
+      </c>
+      <c r="F69">
+        <v>0.03708969549876549</v>
+      </c>
+      <c r="G69">
+        <v>-0.0692352507309088</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.04396487070268113</v>
+        <v>0.1404683500816303</v>
       </c>
       <c r="C71">
-        <v>0.2110904109951184</v>
+        <v>0.2294763782765783</v>
       </c>
       <c r="D71">
-        <v>0.115464126751222</v>
+        <v>0.003011977335317662</v>
       </c>
       <c r="E71">
-        <v>-0.01216798307418535</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.0306020085938852</v>
+      </c>
+      <c r="F71">
+        <v>0.01718893453103285</v>
+      </c>
+      <c r="G71">
+        <v>-0.05870764132571572</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.001459340872880583</v>
+        <v>0.08412021486164284</v>
       </c>
       <c r="C72">
-        <v>0.03426570469990181</v>
+        <v>-0.07238010781189361</v>
       </c>
       <c r="D72">
-        <v>-0.1167209116073149</v>
+        <v>0.007820554382119713</v>
       </c>
       <c r="E72">
-        <v>0.006144130427244239</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.002176666051106732</v>
+      </c>
+      <c r="F72">
+        <v>-0.04311789133060024</v>
+      </c>
+      <c r="G72">
+        <v>-0.06325847460064635</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05350065139503734</v>
+        <v>0.3745124471520331</v>
       </c>
       <c r="C73">
-        <v>0.1688964609244396</v>
+        <v>-0.1218707646277653</v>
       </c>
       <c r="D73">
-        <v>-0.1684330887224659</v>
+        <v>-0.02283563129225269</v>
       </c>
       <c r="E73">
-        <v>-0.03183740725730429</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06831644019114302</v>
+      </c>
+      <c r="F73">
+        <v>-0.5717422979923318</v>
+      </c>
+      <c r="G73">
+        <v>0.2177268966406846</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.002805735224267215</v>
+        <v>0.105966210976663</v>
       </c>
       <c r="C74">
-        <v>0.06475565669474477</v>
+        <v>-0.1110512384908868</v>
       </c>
       <c r="D74">
-        <v>-0.1665171412116435</v>
+        <v>0.009767781367768241</v>
       </c>
       <c r="E74">
-        <v>-0.007263302442864667</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01060842504122611</v>
+      </c>
+      <c r="F74">
+        <v>0.07113588424913884</v>
+      </c>
+      <c r="G74">
+        <v>-0.06459987554100785</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01133598417755308</v>
+        <v>0.2491357568555156</v>
       </c>
       <c r="C75">
-        <v>0.1596672312121944</v>
+        <v>-0.1523953470335276</v>
       </c>
       <c r="D75">
-        <v>-0.3050572548109287</v>
+        <v>0.03082046377544941</v>
       </c>
       <c r="E75">
-        <v>-0.008848025735956241</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05664638191400226</v>
+      </c>
+      <c r="F75">
+        <v>0.175999685086984</v>
+      </c>
+      <c r="G75">
+        <v>0.05288962832124285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>2.634721809819263e-05</v>
+        <v>0.1216489095202783</v>
       </c>
       <c r="C76">
-        <v>0.1004768254380056</v>
+        <v>-0.1139790370473802</v>
       </c>
       <c r="D76">
-        <v>-0.2348335847505543</v>
+        <v>0.0203110320407018</v>
       </c>
       <c r="E76">
-        <v>0.03741547636915886</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04039274475611222</v>
+      </c>
+      <c r="F76">
+        <v>0.1174193571619309</v>
+      </c>
+      <c r="G76">
+        <v>-0.03989865862952036</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01400674300145704</v>
+        <v>0.06656654482988272</v>
       </c>
       <c r="C77">
-        <v>0.01980557348075608</v>
+        <v>-0.06115544584917861</v>
       </c>
       <c r="D77">
-        <v>-0.0380724401888567</v>
+        <v>-0.01267124228134228</v>
       </c>
       <c r="E77">
-        <v>-0.01868282815006878</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04990961235100579</v>
+      </c>
+      <c r="F77">
+        <v>-0.01186124223650642</v>
+      </c>
+      <c r="G77">
+        <v>-0.06062814749887396</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.005800405136074831</v>
+        <v>0.04225608282671019</v>
       </c>
       <c r="C78">
-        <v>0.01642845308564168</v>
+        <v>-0.05086119506960254</v>
       </c>
       <c r="D78">
-        <v>-0.0390051782563828</v>
+        <v>-0.00562206855797281</v>
       </c>
       <c r="E78">
-        <v>-0.004142452586225399</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02239296557089747</v>
+      </c>
+      <c r="F78">
+        <v>-0.03841117413442277</v>
+      </c>
+      <c r="G78">
+        <v>-0.07228434169195884</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01592827183983385</v>
+        <v>0.05474727239582198</v>
       </c>
       <c r="C80">
-        <v>0.07571401743021458</v>
+        <v>-0.07057308146923934</v>
       </c>
       <c r="D80">
-        <v>-0.2137265576688981</v>
+        <v>-0.01026413858092494</v>
       </c>
       <c r="E80">
-        <v>0.7799820486049457</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02670720813139852</v>
+      </c>
+      <c r="F80">
+        <v>-0.000204031745842869</v>
+      </c>
+      <c r="G80">
+        <v>-0.6017176886254698</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.008019039536751203</v>
+        <v>0.1395076447862031</v>
       </c>
       <c r="C81">
-        <v>0.0982412172984124</v>
+        <v>-0.09694559031661915</v>
       </c>
       <c r="D81">
-        <v>-0.1735897481616273</v>
+        <v>0.01532768320971731</v>
       </c>
       <c r="E81">
-        <v>0.0177941684324492</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03349734132109809</v>
+      </c>
+      <c r="F81">
+        <v>0.1326460590499262</v>
+      </c>
+      <c r="G81">
+        <v>-0.02266363049626762</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1222851040558369</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.07160245053891588</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.007417929430911489</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08559569527079114</v>
+      </c>
+      <c r="F82">
+        <v>0.03126176584428038</v>
+      </c>
+      <c r="G82">
+        <v>-0.02867915935556174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007055146082419547</v>
+        <v>0.03681202423666728</v>
       </c>
       <c r="C83">
-        <v>0.01928949776572698</v>
+        <v>-0.02711915350072524</v>
       </c>
       <c r="D83">
-        <v>-0.02106231739123356</v>
+        <v>-0.0054681720952114</v>
       </c>
       <c r="E83">
-        <v>-0.0008005098756058902</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02510238437094189</v>
+      </c>
+      <c r="F83">
+        <v>-0.03436193330880185</v>
+      </c>
+      <c r="G83">
+        <v>-0.04624102136602855</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01791878669046411</v>
+        <v>0.2148950274433267</v>
       </c>
       <c r="C85">
-        <v>0.1257971060012211</v>
+        <v>-0.1474922764106916</v>
       </c>
       <c r="D85">
-        <v>-0.2763294030417872</v>
+        <v>0.01871955154154682</v>
       </c>
       <c r="E85">
-        <v>-0.003263122203618994</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09618363244222007</v>
+      </c>
+      <c r="F85">
+        <v>0.1368951962560934</v>
+      </c>
+      <c r="G85">
+        <v>0.1043172658347678</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009480557270349374</v>
+        <v>0.01414750958119289</v>
       </c>
       <c r="C86">
-        <v>0.03115837519209146</v>
+        <v>-0.02570674074732369</v>
       </c>
       <c r="D86">
-        <v>-0.01020115658097627</v>
+        <v>-0.0118780166684837</v>
       </c>
       <c r="E86">
-        <v>-0.03543251453438188</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04338492147324536</v>
+      </c>
+      <c r="F86">
+        <v>-0.0319621121480426</v>
+      </c>
+      <c r="G86">
+        <v>-0.1543185811941631</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.008640354786356471</v>
+        <v>0.02326605618297364</v>
       </c>
       <c r="C87">
-        <v>0.007210418550745683</v>
+        <v>-0.02190496030853002</v>
       </c>
       <c r="D87">
-        <v>-0.04010233843828302</v>
+        <v>-0.01221062218078439</v>
       </c>
       <c r="E87">
-        <v>-0.008228512456139312</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08321551856578338</v>
+      </c>
+      <c r="F87">
+        <v>-0.02057435097321117</v>
+      </c>
+      <c r="G87">
+        <v>-0.1017005690732805</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02770107496868574</v>
+        <v>0.09095911151380907</v>
       </c>
       <c r="C88">
-        <v>0.02861119526863386</v>
+        <v>-0.0656302106503721</v>
       </c>
       <c r="D88">
-        <v>-0.0396238018235688</v>
+        <v>-0.02252481059327168</v>
       </c>
       <c r="E88">
-        <v>0.001572807493432957</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.009229597759632287</v>
+      </c>
+      <c r="F88">
+        <v>0.01690274121848573</v>
+      </c>
+      <c r="G88">
+        <v>-0.05492453748038263</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.08474609465661616</v>
+        <v>0.2327365852034906</v>
       </c>
       <c r="C89">
-        <v>0.3956283699057955</v>
+        <v>0.3682527608180756</v>
       </c>
       <c r="D89">
-        <v>0.2053408725378974</v>
+        <v>0.001210498374286624</v>
       </c>
       <c r="E89">
-        <v>0.01471110243937024</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01884817218733012</v>
+      </c>
+      <c r="F89">
+        <v>0.03154344400510928</v>
+      </c>
+      <c r="G89">
+        <v>-0.05151337490357462</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.06413098882227451</v>
+        <v>0.2077576117854607</v>
       </c>
       <c r="C90">
-        <v>0.3050623258056895</v>
+        <v>0.3203658343998994</v>
       </c>
       <c r="D90">
-        <v>0.1840290765957827</v>
+        <v>0.005446522041164127</v>
       </c>
       <c r="E90">
-        <v>-0.01915918959141286</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.006639370818032006</v>
+      </c>
+      <c r="F90">
+        <v>0.04941700102392062</v>
+      </c>
+      <c r="G90">
+        <v>-0.01477645921014711</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.007897249839192015</v>
+        <v>0.1892903751411943</v>
       </c>
       <c r="C91">
-        <v>0.1401772354961357</v>
+        <v>-0.1435674997980436</v>
       </c>
       <c r="D91">
-        <v>-0.2342742981753099</v>
+        <v>0.02336004377121175</v>
       </c>
       <c r="E91">
-        <v>0.01914458043980112</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06714687707460326</v>
+      </c>
+      <c r="F91">
+        <v>0.1488103603116625</v>
+      </c>
+      <c r="G91">
+        <v>-0.01310605343634952</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.0310938608311339</v>
+        <v>0.201058768402277</v>
       </c>
       <c r="C92">
-        <v>0.3158935792779317</v>
+        <v>0.2571565020969765</v>
       </c>
       <c r="D92">
-        <v>0.0765709373369609</v>
+        <v>0.03914419972601577</v>
       </c>
       <c r="E92">
-        <v>-0.02132953951361382</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.02849434871556656</v>
+      </c>
+      <c r="F92">
+        <v>0.05802348760102845</v>
+      </c>
+      <c r="G92">
+        <v>-0.12214997444795</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.06203787936290557</v>
+        <v>0.2331838451654124</v>
       </c>
       <c r="C93">
-        <v>0.3292630429593746</v>
+        <v>0.3180505687280876</v>
       </c>
       <c r="D93">
-        <v>0.1721080680271631</v>
+        <v>0.01216974168910367</v>
       </c>
       <c r="E93">
-        <v>-0.04377319999107196</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.006497388728316707</v>
+      </c>
+      <c r="F93">
+        <v>0.03167883433261715</v>
+      </c>
+      <c r="G93">
+        <v>-0.01878951516574058</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03125859074913057</v>
+        <v>0.3156139724811347</v>
       </c>
       <c r="C94">
-        <v>0.1621104284682565</v>
+        <v>-0.179525662199988</v>
       </c>
       <c r="D94">
-        <v>-0.2678194660303776</v>
+        <v>0.01835122143400978</v>
       </c>
       <c r="E94">
-        <v>-0.009874731119070329</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1667117903463122</v>
+      </c>
+      <c r="F94">
+        <v>0.4776409914346769</v>
+      </c>
+      <c r="G94">
+        <v>0.3202014245772793</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.005102621431217493</v>
+        <v>0.0974962546683323</v>
       </c>
       <c r="C95">
-        <v>0.03434446954930517</v>
+        <v>-0.08713730287026854</v>
       </c>
       <c r="D95">
-        <v>-0.09195397676543103</v>
+        <v>0.009261149269392987</v>
       </c>
       <c r="E95">
-        <v>-0.127808433849301</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06420569279887184</v>
+      </c>
+      <c r="F95">
+        <v>-0.2104058551146008</v>
+      </c>
+      <c r="G95">
+        <v>0.09937647122829053</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.01419342101948833</v>
+        <v>0.1981851172989019</v>
       </c>
       <c r="C98">
-        <v>0.1519155855921523</v>
+        <v>-0.04757903735363366</v>
       </c>
       <c r="D98">
-        <v>-0.1313763392649478</v>
+        <v>0.01218023735841698</v>
       </c>
       <c r="E98">
-        <v>-0.04632745149783175</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06823208111133248</v>
+      </c>
+      <c r="F98">
+        <v>-0.23692033481749</v>
+      </c>
+      <c r="G98">
+        <v>0.00478320843040791</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008744163679884764</v>
+        <v>0.009396386306282398</v>
       </c>
       <c r="C101">
-        <v>0.01897071638234657</v>
+        <v>-0.01977008998269415</v>
       </c>
       <c r="D101">
-        <v>-0.007514935973297404</v>
+        <v>-0.007998386998991617</v>
       </c>
       <c r="E101">
-        <v>0.00336460280415652</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.001977024586847756</v>
+      </c>
+      <c r="F101">
+        <v>0.01665639924533086</v>
+      </c>
+      <c r="G101">
+        <v>-0.07398286550486551</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01783305039274356</v>
+        <v>0.1174767194056301</v>
       </c>
       <c r="C102">
-        <v>0.06889642148710387</v>
+        <v>-0.08561170113619358</v>
       </c>
       <c r="D102">
-        <v>-0.1344784095101494</v>
+        <v>-0.001033005999217418</v>
       </c>
       <c r="E102">
-        <v>0.004332518113117174</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03153424190219015</v>
+      </c>
+      <c r="F102">
+        <v>0.04005642317914734</v>
+      </c>
+      <c r="G102">
+        <v>-0.003557856121533393</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.0008851410728189313</v>
+        <v>0.002217587789747898</v>
       </c>
       <c r="C103">
-        <v>0.005961444403589452</v>
+        <v>-0.003689004866307155</v>
       </c>
       <c r="D103">
-        <v>-0.02083749354888485</v>
+        <v>6.545986974257132e-05</v>
       </c>
       <c r="E103">
-        <v>0.0127542597795321</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.0004454275952199371</v>
+      </c>
+      <c r="F103">
+        <v>0.007117457328887444</v>
+      </c>
+      <c r="G103">
+        <v>-0.01047606435136142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9747267771336064</v>
+        <v>0.02139536515210438</v>
       </c>
       <c r="C104">
-        <v>-0.1766456956168986</v>
+        <v>0.03077779698442104</v>
       </c>
       <c r="D104">
-        <v>0.01790098996698784</v>
+        <v>-0.9872172215120005</v>
       </c>
       <c r="E104">
-        <v>0.0394437856064562</v>
+        <v>0.05449371802414574</v>
+      </c>
+      <c r="F104">
+        <v>0.03866157316638327</v>
+      </c>
+      <c r="G104">
+        <v>0.02472717071929234</v>
       </c>
     </row>
   </sheetData>
